--- a/public/sample_uploads/allocate_account_entries_2/capital_remittance_payments.xlsx
+++ b/public/sample_uploads/allocate_account_entries_2/capital_remittance_payments.xlsx
@@ -333,7 +333,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
   <si>
-    <t xml:space="preserve">Stakeholders *</t>
+    <t xml:space="preserve">Stakeholder *</t>
   </si>
   <si>
     <t xml:space="preserve">Fund *</t>
@@ -566,7 +566,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,7 +574,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -582,23 +582,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -616,15 +616,6 @@
     <cellStyle name="Normal 4" xfId="23"/>
     <cellStyle name="Normal 5" xfId="24"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -813,11 +804,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.38"/>
